--- a/Kortright_BC.xlsx
+++ b/Kortright_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF476DFA-1A98-465B-A424-B6F94742400A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E28BF5-1D7B-4821-945B-F516C3EC3EE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="915" windowWidth="23010" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Compartment</t>
   </si>
@@ -45,27 +45,12 @@
     <t>FrnOC</t>
   </si>
   <si>
-    <t>Air</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>SubSoil</t>
-  </si>
-  <si>
-    <t>Topsoil</t>
-  </si>
-  <si>
     <t>Porosity</t>
   </si>
   <si>
-    <t>Width</t>
-  </si>
-  <si>
     <t>FrnWat</t>
   </si>
   <si>
@@ -87,29 +72,51 @@
     <t>Advection</t>
   </si>
   <si>
-    <t>RootBody</t>
-  </si>
-  <si>
-    <t>RootXylem</t>
-  </si>
-  <si>
-    <t>RootCyl</t>
-  </si>
-  <si>
-    <t>Shoots</t>
-  </si>
-  <si>
-    <t>Pond</t>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>subsoil</t>
+  </si>
+  <si>
+    <t>shoots</t>
+  </si>
+  <si>
+    <t>topsoil</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>rootbody</t>
+  </si>
+  <si>
+    <t>rootxylem</t>
+  </si>
+  <si>
+    <t>rootcyl</t>
+  </si>
+  <si>
+    <t>pond</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>drain_pores</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Discrete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -609,21 +616,19 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -981,461 +986,596 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>18</v>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>11.5824</v>
-      </c>
-      <c r="C2" s="4">
-        <f>0.9144-0.05</f>
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
         <v>1000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>22</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <f>1-M2</f>
         <v>0.99999400000000005</v>
       </c>
-      <c r="H2">
-        <v>0.35</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
         <v>0.1</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>2000</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="6">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6">
         <v>2605</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4">
-        <v>11.5824</v>
-      </c>
-      <c r="C3" s="4">
-        <f>0.9144-0.05</f>
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
         <v>2605</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="H3">
-        <v>0.65</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="6">
+        <f>0.37*H3</f>
+        <v>0.15539999999999998</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="I3" s="6">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2605</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2605</v>
+      </c>
+      <c r="F4" s="6">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6">
+        <f>0.37*H4</f>
+        <v>0.185</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
+        <v>2605</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L6" si="0">0.5/(0.000016)</f>
+        <v>31250</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="0"/>
+        <v>31250</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
         <v>0.05</v>
       </c>
-      <c r="K3">
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>5.5</v>
       </c>
-      <c r="L3">
-        <v>2000</v>
-      </c>
-      <c r="M3">
-        <v>0.6</v>
-      </c>
-      <c r="N3">
-        <v>2605</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
+      <c r="L7" s="8">
+        <f>0.5/(0.000016)</f>
+        <v>31250</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
-        <v>11.5824</v>
-      </c>
-      <c r="C4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
         <v>850</v>
       </c>
-      <c r="F4">
+      <c r="F8" s="6">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G8" s="6">
         <v>0.94199999999999995</v>
       </c>
-      <c r="H4">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I8" s="6">
         <v>0.02</v>
       </c>
-      <c r="J4">
-        <f>1-(I4+G4)</f>
+      <c r="J8" s="6">
+        <f>1-(I8+G8)</f>
         <v>3.8000000000000034E-2</v>
       </c>
-      <c r="K4">
+      <c r="K8" s="6">
         <v>5.5</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4" si="0">0.5/(0.000016)</f>
+      <c r="L8" s="6">
+        <f t="shared" ref="L8" si="1">0.5/(0.000016)</f>
         <v>31250</v>
       </c>
-      <c r="N4">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
         <v>1000</v>
       </c>
-      <c r="O4">
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
-        <v>11.5824</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>2605</v>
-      </c>
-      <c r="F5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="C9" s="6">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I5">
-        <v>0.1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>5.5</v>
-      </c>
-      <c r="L5">
-        <v>2000</v>
-      </c>
-      <c r="N5">
-        <v>2605</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>11.5824</v>
-      </c>
-      <c r="C6" s="4">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="G9" s="6">
         <f>3*0.000001</f>
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="I6">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>0.1</v>
       </c>
-      <c r="K6">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
         <v>5.6</v>
       </c>
-      <c r="L6">
+      <c r="L9" s="6">
         <v>3000</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M9" s="6">
         <v>1.9999999999999999E-11</v>
       </c>
-      <c r="N6">
+      <c r="N9" s="6">
         <v>2605</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
-        <v>11.5824</v>
-      </c>
-      <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
         <v>1000</v>
       </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="I7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>6.5</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L8" si="1">0.5/(0.000016)</f>
-        <v>31250</v>
-      </c>
-      <c r="N7">
-        <v>1000</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4">
-        <v>11.5824</v>
-      </c>
-      <c r="C8">
-        <v>0.6</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="I8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>5.5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>31250</v>
-      </c>
-      <c r="N8">
-        <v>1000</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9">
-        <v>11.5824</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="8">
-        <v>17</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="L9" s="8">
-        <f>0.5/(0.000016)</f>
-        <v>31250</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8">
-        <v>1000</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7">
-        <v>11.5824</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="F10" s="8">
         <v>22</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <f>1-M10</f>
         <v>0.999</v>
       </c>
-      <c r="H10" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <v>0.1</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
         <v>6</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="8">
         <v>2000</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="8">
         <v>1E-3</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="8">
         <v>2605</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2605</v>
+      </c>
+      <c r="F11" s="8">
+        <v>17</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="N11" s="8">
+        <v>2605</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="9">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="9">
+        <v>22</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.99999400000000005</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <v>6</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="M12" s="9">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2605</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
         <v>0</v>
       </c>
     </row>

--- a/Kortright_BC.xlsx
+++ b/Kortright_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E28BF5-1D7B-4821-945B-F516C3EC3EE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3528CC42-9292-4553-9334-E2BEED184E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -989,7 +991,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1057,8 @@
         <v>25</v>
       </c>
       <c r="B2" s="6">
-        <v>10</v>
+        <f>B3</f>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -1077,7 +1080,7 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6">
-        <v>6</v>
+        <v>7.35</v>
       </c>
       <c r="L2" s="6">
         <v>2000</v>
@@ -1101,7 +1104,8 @@
         <v>15</v>
       </c>
       <c r="B3" s="6">
-        <v>30</v>
+        <f>30*0.311294910535741</f>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C3" s="6">
         <v>0.4</v>
@@ -1127,7 +1131,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6">
-        <v>5.5</v>
+        <v>7.35</v>
       </c>
       <c r="L3" s="6">
         <v>2000</v>
@@ -1151,7 +1155,8 @@
         <v>17</v>
       </c>
       <c r="B4" s="6">
-        <v>20.440000000000001</v>
+        <f>30*0.311294910535741</f>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C4" s="6">
         <v>7.4999999999999997E-2</v>
@@ -1179,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>5.5</v>
+        <v>7.35</v>
       </c>
       <c r="L4" s="6">
         <v>2000</v>
@@ -1201,7 +1206,8 @@
         <v>19</v>
       </c>
       <c r="B5" s="6">
-        <v>10</v>
+        <f t="shared" ref="B5:B8" si="0">B6</f>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C5" s="6">
         <v>0.6</v>
@@ -1226,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>6.5</v>
+        <v>7.35</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:L6" si="0">0.5/(0.000016)</f>
+        <f t="shared" ref="L5:L6" si="1">0.5/(0.000016)</f>
         <v>31250</v>
       </c>
       <c r="M5" s="6"/>
@@ -1249,7 +1255,8 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C6" s="6">
         <v>0.6</v>
@@ -1274,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>5.5</v>
+        <v>7.35</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31250</v>
       </c>
       <c r="M6" s="6"/>
@@ -1296,8 +1303,9 @@
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8">
-        <v>10</v>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C7" s="8">
         <v>0.6</v>
@@ -1323,8 +1331,8 @@
       <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="K7" s="8">
-        <v>5.5</v>
+      <c r="K7" s="6">
+        <v>7.35</v>
       </c>
       <c r="L7" s="8">
         <f>0.5/(0.000016)</f>
@@ -1347,7 +1355,8 @@
         <v>16</v>
       </c>
       <c r="B8" s="6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -1375,10 +1384,10 @@
         <v>3.8000000000000034E-2</v>
       </c>
       <c r="K8" s="6">
-        <v>5.5</v>
+        <v>7.35</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8" si="1">0.5/(0.000016)</f>
+        <f t="shared" ref="L8" si="2">0.5/(0.000016)</f>
         <v>31250</v>
       </c>
       <c r="M8" s="6"/>
@@ -1397,7 +1406,8 @@
         <v>18</v>
       </c>
       <c r="B9" s="6">
-        <v>20.440000000000001</v>
+        <f>30*0.311294910535741</f>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C9" s="6">
         <v>50</v>
@@ -1419,7 +1429,7 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6">
-        <v>5.6</v>
+        <v>7.35</v>
       </c>
       <c r="L9" s="6">
         <v>3000</v>
@@ -1466,8 +1476,8 @@
         <v>0.1</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="8">
-        <v>6</v>
+      <c r="K10" s="6">
+        <v>7.35</v>
       </c>
       <c r="L10" s="8">
         <v>2000</v>
@@ -1489,8 +1499,9 @@
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8">
-        <v>30</v>
+      <c r="B11" s="6">
+        <f>30*0.311294910535741</f>
+        <v>9.3388473160722292</v>
       </c>
       <c r="C11" s="8">
         <v>0.15</v>
@@ -1514,8 +1525,8 @@
         <v>0.05</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <v>5.5</v>
+      <c r="K11" s="6">
+        <v>7.35</v>
       </c>
       <c r="L11" s="8">
         <v>2000</v>
@@ -1561,7 +1572,7 @@
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9">
-        <v>6</v>
+        <v>7.35</v>
       </c>
       <c r="L12" s="9">
         <v>2000</v>

--- a/Kortright_BC.xlsx
+++ b/Kortright_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3528CC42-9292-4553-9334-E2BEED184E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBE515B-A41A-4B16-ABE3-101A45805CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -991,7 +991,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,8 +1120,8 @@
         <v>17</v>
       </c>
       <c r="G3" s="6">
-        <f>0.37*H3</f>
-        <v>0.15539999999999998</v>
+        <f>H3</f>
+        <v>0.42</v>
       </c>
       <c r="H3" s="6">
         <v>0.42</v>
@@ -1171,8 +1171,8 @@
         <v>17</v>
       </c>
       <c r="G4" s="6">
-        <f>0.37*H4</f>
-        <v>0.185</v>
+        <f>H4</f>
+        <v>0.5</v>
       </c>
       <c r="H4" s="7">
         <v>0.5</v>
@@ -1516,7 +1516,8 @@
         <v>17</v>
       </c>
       <c r="G11" s="8">
-        <v>0.2</v>
+        <f>H11</f>
+        <v>0.65</v>
       </c>
       <c r="H11" s="8">
         <v>0.65</v>

--- a/Kortright_BC.xlsx
+++ b/Kortright_BC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBE515B-A41A-4B16-ABE3-101A45805CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CEE6E0-48A6-45B0-969D-7E3A49D653E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -631,6 +631,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -991,7 +992,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1073,7 @@
       </c>
       <c r="G2" s="6">
         <f>1-M2</f>
-        <v>0.99999400000000005</v>
+        <v>0.99999991249999998</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6">
@@ -1085,8 +1086,9 @@
       <c r="L2" s="6">
         <v>2000</v>
       </c>
-      <c r="M2" s="6">
-        <v>6.0000000000000002E-6</v>
+      <c r="M2" s="1">
+        <f>M10/100</f>
+        <v>8.7499999999999996E-8</v>
       </c>
       <c r="N2" s="6">
         <v>2605</v>
@@ -1206,8 +1208,8 @@
         <v>19</v>
       </c>
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B8" si="0">B6</f>
-        <v>9.3388473160722292</v>
+        <f t="shared" ref="B5:B7" si="0">B6</f>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <v>0.6</v>
@@ -1256,7 +1258,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>9.3388473160722292</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
         <v>0.6</v>
@@ -1305,7 +1307,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>9.3388473160722292</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8">
         <v>0.6</v>
@@ -1355,17 +1357,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>9.3388473160722292</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>1.607917E-2</v>
       </c>
       <c r="D8" s="6">
         <v>10</v>
       </c>
       <c r="E8" s="6">
-        <v>850</v>
+        <v>527.39</v>
       </c>
       <c r="F8" s="6">
         <v>17</v>
@@ -1469,7 +1470,7 @@
       </c>
       <c r="G10" s="8">
         <f>1-M10</f>
-        <v>0.999</v>
+        <v>0.99999125</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8">
@@ -1482,8 +1483,9 @@
       <c r="L10" s="8">
         <v>2000</v>
       </c>
-      <c r="M10" s="8">
-        <v>1E-3</v>
+      <c r="M10" s="10">
+        <f>21/2400000</f>
+        <v>8.7499999999999992E-6</v>
       </c>
       <c r="N10" s="8">
         <v>2605</v>

--- a/Kortright_BC.xlsx
+++ b/Kortright_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CEE6E0-48A6-45B0-969D-7E3A49D653E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DBF24E-43DE-45A0-A4C9-577BD3C1E6E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -1208,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B7" si="0">B6</f>
+        <f>B6</f>
         <v>1</v>
       </c>
       <c r="C5" s="6">
@@ -1237,7 +1237,7 @@
         <v>7.35</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:L6" si="1">0.5/(0.000016)</f>
+        <f t="shared" ref="L5:L6" si="0">0.5/(0.000016)</f>
         <v>31250</v>
       </c>
       <c r="M5" s="6"/>
@@ -1257,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6:B7" si="1">B7</f>
         <v>1</v>
       </c>
       <c r="C6" s="6">
@@ -1286,7 +1286,7 @@
         <v>7.35</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31250</v>
       </c>
       <c r="M6" s="6"/>
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C7" s="8">

--- a/Kortright_BC.xlsx
+++ b/Kortright_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DBF24E-43DE-45A0-A4C9-577BD3C1E6E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BFE3F9-FE80-4A2E-ADE1-503B5B939350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -992,12 +992,13 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
